--- a/mpddeficit/story_content/external_files/mpd-planning-workbook.xlsx
+++ b/mpddeficit/story_content/external_files/mpd-planning-workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcus.miers\OneDrive - InterVarsity Christian Fellowship USA\Documents\eLearning Development\MPD eLearning\MPD 104\Deficit Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{F8A1FD39-B2F5-4A1F-9E79-0A8C5FAB2710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3CC6A81F-96DF-458C-B145-2ABE940F5493}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="8_{F8A1FD39-B2F5-4A1F-9E79-0A8C5FAB2710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79005AF9-E9C3-4652-9C76-048E3FC1C89D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{339D521B-BB2D-408F-8D46-87E3083FB2FD}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +116,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Notes:</t>
+      <t xml:space="preserve">
+Notes:</t>
     </r>
     <r>
       <rPr>
@@ -127,8 +129,45 @@
       <t xml:space="preserve">
 For deficts $10k and above, we recommend sprints of no less than 8 weeks in duration.
 In order to reach your goal in a 20/hour week
-plan, you will likely need to double the time to
-your MPD sprint.</t>
+plan, you will likely need to double the time of
+your MPD sprint.
+Remember that these numbers are merely a
+range of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>average scenarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. We have found 
+that even though these numbers may not reflect your exact circumstances, it's extremely helpful
+to have a sense for the task ahead of you.
+Use these numbers as a guideline to structure
+your plan. Anticipate how much work this will involve, but also pray over this effort as you 
+move forward.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>God is with you in this!</t>
     </r>
   </si>
 </sst>
@@ -141,7 +180,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +285,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -687,7 +740,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -730,22 +783,7 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -785,20 +823,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="9" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -818,18 +874,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,6 +891,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,7 +904,17 @@
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFEBEBEB"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF5F5F5"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFEBEBEB"/>
@@ -883,11 +943,6 @@
     <dxf>
       <font>
         <color rgb="FFEBEBEB"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
     </dxf>
   </dxfs>
@@ -1268,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B65200-5264-43DE-9951-8CFB5F0B0EA3}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1283,406 +1338,438 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="55" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="40">
-        <v>15000</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="42" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="34">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="41">
-        <v>8</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+    </row>
+    <row r="9" spans="1:10" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="37">
         <f>$E$7/1000</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="19">
-        <f t="shared" ref="D11" si="0">$E$7/900</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="E11" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="D11" s="38">
+        <f>$E$7/833</f>
+        <v>1.2004801920768306E-3</v>
+      </c>
+      <c r="E11" s="37">
         <f>$E$7/700</f>
-        <v>21.428571428571427</v>
+        <v>1.4285714285714286E-3</v>
       </c>
       <c r="F11" s="9"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="39">
         <f>C11*2</f>
-        <v>30</v>
-      </c>
-      <c r="D12" s="20">
-        <f>D11*4</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="E12" s="20">
-        <f>E11*6</f>
-        <v>128.57142857142856</v>
+        <v>2E-3</v>
+      </c>
+      <c r="D12" s="39">
+        <f>D11*3.5</f>
+        <v>4.2016806722689074E-3</v>
+      </c>
+      <c r="E12" s="39">
+        <f>E11*5</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="F12" s="9"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
-        <f>C12*5</f>
-        <v>150</v>
-      </c>
-      <c r="D13" s="22">
-        <f>D12*7</f>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="E13" s="21">
-        <f>E12*10</f>
-        <v>1285.7142857142856</v>
+      <c r="C13" s="40">
+        <f>C11*7</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="40">
+        <f>D11*10</f>
+        <v>1.2004801920768306E-2</v>
+      </c>
+      <c r="E13" s="40">
+        <f>E11*13</f>
+        <v>1.8571428571428572E-2</v>
       </c>
       <c r="F13" s="9"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
     </row>
     <row r="14" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="20">
-        <f>C15/5</f>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="D14" s="20">
-        <f>D15/7</f>
-        <v>9.5238095238095237</v>
-      </c>
-      <c r="E14" s="20">
-        <f>E15/10</f>
-        <v>18.367346938775508</v>
+      <c r="C14" s="39">
+        <f t="shared" ref="C14:D14" si="0">C12/$E$8</f>
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="0"/>
+        <v>4.2016806722689074E-3</v>
+      </c>
+      <c r="E14" s="39">
+        <f>E12/$E$8</f>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="F14" s="9"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="41" t="e">
         <f t="shared" ref="C15:D15" si="1">C13/($E$8-1)</f>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="D15" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="41" t="e">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="E15" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="41" t="e">
         <f>E13/($E$8-1)</f>
-        <v>183.67346938775509</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" s="53" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:10" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="18">
         <f>$E$7/1000</f>
-        <v>15</v>
+        <v>1E-3</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" ref="D18" si="2">$E$7/900</f>
-        <v>16.666666666666668</v>
+        <f>$E$7/833</f>
+        <v>1.2004801920768306E-3</v>
       </c>
       <c r="E18" s="18">
         <f>$E$7/700</f>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1.4285714285714286E-3</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="39">
         <f>C18*2</f>
-        <v>30</v>
-      </c>
-      <c r="D19" s="25">
-        <f>D18*4</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="E19" s="24">
-        <f>E18*6</f>
-        <v>128.57142857142856</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2E-3</v>
+      </c>
+      <c r="D19" s="39">
+        <f>D18*3.5</f>
+        <v>4.2016806722689074E-3</v>
+      </c>
+      <c r="E19" s="39">
+        <f>E18*5</f>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="21">
-        <f>C19*5</f>
-        <v>150</v>
-      </c>
-      <c r="D20" s="22">
-        <f>D19*7</f>
-        <v>466.66666666666669</v>
-      </c>
-      <c r="E20" s="21">
-        <f>E19*10</f>
-        <v>1285.7142857142856</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="40">
+        <f>C18*7</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="40">
+        <f>D18*10</f>
+        <v>1.2004801920768306E-2</v>
+      </c>
+      <c r="E20" s="40">
+        <f>E18*13</f>
+        <v>1.8571428571428572E-2</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="20">
-        <f>C22/5</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="D21" s="20">
-        <f>D22/7</f>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="E21" s="20">
-        <f>E22/10</f>
-        <v>9.1836734693877542</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="39">
+        <f>(C19/$E$8)/2</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D21" s="39">
+        <f t="shared" ref="D21:E21" si="2">(D19/$E$8)/2</f>
+        <v>2.1008403361344537E-3</v>
+      </c>
+      <c r="E21" s="39">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285713E-3</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20" t="e">
         <f>(C20/($E$8-1))/2</f>
-        <v>10.714285714285714</v>
-      </c>
-      <c r="D22" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="20" t="e">
         <f>(D20/($E$8-1))/2</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="E22" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="20" t="e">
         <f>(E20/($E$8-1))/2</f>
-        <v>91.836734693877546</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="35"/>
-    </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="1048576" spans="16384:16384" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="XFD1048576" s="29" t="s">
+      <c r="XFD1048576" s="24" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G7:J10"/>
+  <mergeCells count="7">
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="B1:XFD1"/>
     <mergeCell ref="B2:E6"/>
     <mergeCell ref="K9:XFD9"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G7:J17"/>
   </mergeCells>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
-      <formula>LEN(TRIM(I17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14 C21:E21">
-    <cfRule type="containsErrors" dxfId="5" priority="6">
+    <cfRule type="containsErrors" dxfId="7" priority="8">
       <formula>ISERROR(C14)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15 C22:E22">
-    <cfRule type="containsErrors" dxfId="3" priority="5">
+    <cfRule type="containsErrors" dxfId="5" priority="7">
       <formula>ISERROR(C15)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E13 C11:E11 C18:E18 C20:E20">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="C11:E11 C18:E18 C13:E13">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:E19 C12:E12">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:E19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1705,21 +1792,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D341C15A65E3B14CB65E4F416F43E54B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ee4e5ce5b1dbb43522cccc3c17485b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b6280a45-6558-4f85-a3cb-ee858ae59f77" xmlns:ns4="c5cf5dd0-e732-4cea-b7ac-90bda81736f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e87c00e0d0d39954a5c42615d2b799d8" ns3:_="" ns4:_="">
     <xsd:import namespace="b6280a45-6558-4f85-a3cb-ee858ae59f77"/>
@@ -1942,24 +2014,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BBBFFE3-B518-482D-B2E2-4DA2E2622F64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7DFE81-A05D-4FF6-9BD2-9E066B7CD58A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52DDE97F-C3FA-43FA-AA57-9957B2D6096F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1976,4 +2046,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F7DFE81-A05D-4FF6-9BD2-9E066B7CD58A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BBBFFE3-B518-482D-B2E2-4DA2E2622F64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>